--- a/DBModel.xlsx
+++ b/DBModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY DOCUMENTS\Project Gladiator\NetBanking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Net Banking Project\NetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB50EFF-9CE6-4377-9ABB-FD370D8F3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2808D76F-F063-42C2-B208-19AD4B776AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,14 +563,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
